--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\CheckLists\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\facultate\VVSS\BombaUBB\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D096F27-5A97-4C0E-94BE-DB6B25784F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85562BBE-7557-4C38-996E-361859680624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="11512" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -350,6 +350,30 @@
   </si>
   <si>
     <t>Constants should be named consistently to communicate intent and improve maintainability. Rename your constants to follow your project’s naming convention to address this issue.</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>KitchenGUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metoda KitchenGUI are aceeasi denumire ca si clasa </t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>Nu exista caz de eroare pentru atunci cand nu se realizeaza plata</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Variabila kitchenOrdersList este declarata gresit.</t>
+  </si>
+  <si>
+    <t>KitchenGUIController</t>
   </si>
 </sst>
 </file>
@@ -612,6 +636,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,16 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,36 +1001,36 @@
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.19921875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.46484375" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1030,10 +1054,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1048,10 +1072,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1063,19 +1087,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1091,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2">
+    <row r="10" spans="1:10" ht="42.75">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="28.5">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1120,7 +1144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="28.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -1285,35 +1309,35 @@
       <selection activeCell="I3" sqref="I3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="22.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.19921875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="22.1328125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1337,10 +1361,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1355,10 +1379,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1370,19 +1394,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1412,7 +1436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6">
+    <row r="11" spans="1:10" ht="57">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1427,7 +1451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="28.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1598,40 +1622,40 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="128" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="26.796875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1655,10 +1679,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1673,10 +1697,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="39"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1688,19 +1712,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1716,31 +1740,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1932,41 +1974,41 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="W12" zoomScale="75" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="62.1328125" style="6" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="7" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="26.796875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1979,7 +2021,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="24" t="s">
         <v>52</v>
       </c>
       <c r="J3" s="17">
@@ -1990,14 +2032,14 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="24" t="s">
         <v>53</v>
       </c>
       <c r="J4" s="3">
@@ -2008,10 +2050,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -2023,10 +2065,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -2046,7 +2088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="100.8">
+    <row r="10" spans="1:10" ht="99.75">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -2056,14 +2098,14 @@
       <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="25" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
+    <row r="11" spans="1:10" ht="28.5">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -2074,21 +2116,21 @@
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="26" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8">
+    <row r="12" spans="1:10" ht="28.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2102,12 +2144,12 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="26" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="100.8">
+    <row r="14" spans="1:10" ht="99.75">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2118,14 +2160,14 @@
       <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="86.4">
+    <row r="15" spans="1:10" ht="85.5">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2136,14 +2178,14 @@
       <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="27" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="85.5">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2154,7 +2196,7 @@
       <c r="D16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="26" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2302,11 +2344,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="18"/>
     </row>
     <row r="35" spans="6:6">
